--- a/capstone/src/test/resources/webshop.xlsx
+++ b/capstone/src/test/resources/webshop.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
